--- a/biology/Zoologie/Conure_à_ventre_rouge/Conure_à_ventre_rouge.xlsx
+++ b/biology/Zoologie/Conure_à_ventre_rouge/Conure_à_ventre_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_ventre_rouge</t>
+          <t>Conure_à_ventre_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhura perlata
 La Conure à ventre rouge (Pyrrhura perlata) est une espèce d'oiseau appartenant au groupe des conures et à la famille des Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_ventre_rouge</t>
+          <t>Conure_à_ventre_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure environ 24 cm.
 Comme les autres conures du genre Pyrrhura, l'adulte présente un dessin écailleux caractéristique. Sur un fond marron, celui-ci est constitué d'écailles rouges. L'ensemble couvre une grande partie de la tête, le dos et la poitrine. Les plumes des joues et la gorge présentent des reflets bleu ciel. Les culottes sont gris bleu azur et les rémiges bleues. Les cercles oculaires blancs sont très marqués. Les iris sont bruns. Le bec est noir avec une cire bien développée. Les pattes sont gris-rose (noires chez le juvénile).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_ventre_rouge</t>
+          <t>Conure_à_ventre_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit à l'origine dans les forêts primaires très denses, souvent humides. Il s'est toutefois adapté à certains milieux déforestés.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_ventre_rouge</t>
+          <t>Conure_à_ventre_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau habite dans une aire restreinte du nord du Brésil comprise entre le fleuve Amazone au nord du Mato Grosso jusqu'aux fleuves Rio Madeira et Tapajos.
 </t>
